--- a/水泥.excel/1109/1109股價(102.1~105.12).xlsx
+++ b/水泥.excel/1109/1109股價(102.1~105.12).xlsx
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>11.77</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="13" spans="1:2">
